--- a/medicine/Enfance/Jean-Paul_Nozière/Jean-Paul_Nozière.xlsx
+++ b/medicine/Enfance/Jean-Paul_Nozière/Jean-Paul_Nozière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Paul_Nozi%C3%A8re</t>
+          <t>Jean-Paul_Nozière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Paul Nozière, né le 7 juillet 1943 à Monay, dans le Jura, est un écrivain français, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Paul_Nozi%C3%A8re</t>
+          <t>Jean-Paul_Nozière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans un petit village d’une trentaine d’habitants du Jura. Ses parents sont instituteurs.
-Devenu adulte, il enseigne l’histoire-géographie pendant une dizaine d'années[1], puis enchaîne sur une carrière de professeur-documentaliste dans un collège à Is-sur-Tille en Côte-d'Or[2]. Il y crée en 1990 la revue Fortissimots, à laquelle collaborent de nombreux professionnels du livre. Il fait écho à cette expérience dans son livre Une lecture inoubliable (Seuil, 1997)[1].
+Devenu adulte, il enseigne l’histoire-géographie pendant une dizaine d'années, puis enchaîne sur une carrière de professeur-documentaliste dans un collège à Is-sur-Tille en Côte-d'Or. Il y crée en 1990 la revue Fortissimots, à laquelle collaborent de nombreux professionnels du livre. Il fait écho à cette expérience dans son livre Une lecture inoubliable (Seuil, 1997).
 Il commence par écrire des nouvelles pour le journal de son ancienne école. La première qu’il publie s’intitule L’Uniforme et porte sur l’Algérie. Il rédige aussi des critiques de films, mais cesse d'en écrire à l'âge de 36 ans. 
-Son premier récit, Un cheval à l'école, paraît en 1979, dans le numéro 34 de J'aime lire[2]. Il écrit ensuite des romans de littérature d'enfance et de jeunesse. Son premier roman noir destiné à un lectorat adulte, Ma chère Béa, est publié dans la Série noire en 1995.
+Son premier récit, Un cheval à l'école, paraît en 1979, dans le numéro 34 de J'aime lire. Il écrit ensuite des romans de littérature d'enfance et de jeunesse. Son premier roman noir destiné à un lectorat adulte, Ma chère Béa, est publié dans la Série noire en 1995.
 Il a écrit une soixantaine de romans pour la jeunesse, publiés chez différents éditeurs, des nouvelles dans des recueils collectifs, ainsi que plus d'une quinzaine de romans policiers pour adultes, dont la série des Enquêtes de Slimane, parue au Seuil. Plusieurs de ses romans ont été primés.
 Il vit en Bourgogne.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Paul_Nozi%C3%A8re</t>
+          <t>Jean-Paul_Nozière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>L'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les romans de Jean-Paul Nozière sont très différents de l'un à l'autre : histoire d'amour douce-amère, intrigue policière, histoire drôle ou plutôt nostalgique, mais avec une constante : les héros ne sont jamais des héros mais souvent des paumés qui passent du rire aux larmes[3].
-Quelques thèmes majeurs[1] : les fêlures de l'enfance ou de l'adolescence, les enfants à l'école et les relations avec les enseignants passionnés ou fragiles, l'Algérie, les enfants assassins, la parodie, le noir ; avec des constantes : la place de la musique, des références au cinéma.
-Pour Jean-Paul Nozière, la force d'un roman (même un roman policier ou un roman loufoque) est dans sa capacité à transmettre, à rappeler que la mémoire est nécessaire pour bien vivre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les romans de Jean-Paul Nozière sont très différents de l'un à l'autre : histoire d'amour douce-amère, intrigue policière, histoire drôle ou plutôt nostalgique, mais avec une constante : les héros ne sont jamais des héros mais souvent des paumés qui passent du rire aux larmes.
+Quelques thèmes majeurs : les fêlures de l'enfance ou de l'adolescence, les enfants à l'école et les relations avec les enseignants passionnés ou fragiles, l'Algérie, les enfants assassins, la parodie, le noir ; avec des constantes : la place de la musique, des références au cinéma.
+Pour Jean-Paul Nozière, la force d'un roman (même un roman policier ou un roman loufoque) est dans sa capacité à transmettre, à rappeler que la mémoire est nécessaire pour bien vivre.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean-Paul_Nozi%C3%A8re</t>
+          <t>Jean-Paul_Nozière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,16 +598,62 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Série Slimane Rahali
-Sauf avis contraire, les romans de cette série sont tous parus dans la collection Points au Seuil.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Slimane Rahali</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sauf avis contraire, les romans de cette série sont tous parus dans la collection Points au Seuil.
 Un regrettable accident, 1999
 Bogart et moi, 1999
 Fatal Tango, 2000
 Trois petites mortes, 2001
-L'Axe du mal, Éditions L'Esprit des Péninsules, 2003
-Autres romans policiers
-Ma chère Béa, Gallimard, Série noire no 2398, 1995
+L'Axe du mal, Éditions L'Esprit des Péninsules, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Nozière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Nozi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ma chère Béa, Gallimard, Série noire no 2398, 1995
 Billi Joe, Fleuve noir, 1996
 Adieu mes jolies, Seuil, 1998
 Tangos, Fleuve noir, 1998
@@ -602,9 +664,47 @@
 Dernier tour de manège, Rivages/Noir no 818, 2011
 Le Chat aux aguets, Rivages/Noir no 890, 2012
 Trabadja, Rivages/Noir no 969, 2014
-La Maison des pendus, French Pulp éditions, 2018
-Romans de littérature d'enfance et de jeunesse
-Un cheval à l'école, Éditions Bayard, 1979
+La Maison des pendus, French Pulp éditions, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Nozière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Nozi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un cheval à l'école, Éditions Bayard, 1979
 Le Facteur à l'envers, Éditions Rageot, coll. « Ma première amitié », 1981 ; Réédition 1991, Hatier, coll. « Ratus » sous le titre Le facteur tête en l’air
 Pépé Révolution, Éditions Magnard, coll. « Tire Lire », 1981 ; réédition, Magnard, 1995
 L'Abominable Destin des Areu-Areu, Éditions Magnard, coll. « Tire Lire », 1982
@@ -664,13 +764,88 @@
 Mon Américain, avec Élisabeth Brami et Jérôme Meyer-Bisch, Nathan, coll. « Roman poche. Mes années collège », 2013 ( (ISBN 9782092543672))
 Le fils des instituteurs, Seuil, 2015 ( (ISBN 9791023503722))
 Roméo sans Juliette, Éditions Thierry Magnier, 2015 ( (ISBN 9782364747487))
-Maman, j'ai peur, Éditions Thierry Magnier, 2016 ( (ISBN 9782364748613))
-Nouvelles
-Recueils de nouvelles
-Demain, ça ira mieux, Éditions Thierry Magnier, 2009
-Et vous mourrez longtemps, Éditions Thierry Magnier, coll. Nouvelles, 2017 ( (ISBN 9791035200183))
-Nouvelles isolées
-Les Trois Amours de Nestor Beausoleil dans Noël de toutes les couleurs, Éditions Rageot, 1989
+Maman, j'ai peur, Éditions Thierry Magnier, 2016 ( (ISBN 9782364748613))</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Nozière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Nozi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Demain, ça ira mieux, Éditions Thierry Magnier, 2009
+Et vous mourrez longtemps, Éditions Thierry Magnier, coll. Nouvelles, 2017 ( (ISBN 9791035200183))</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Nozière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Paul_Nozi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les ouvrages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nouvelles isolées</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Trois Amours de Nestor Beausoleil dans Noël de toutes les couleurs, Éditions Rageot, 1989
 Et vous mourrez longtemps dans Page noire, Gallimard, 1995
 La vie est immense dans Douze et amères, Fleuve noir, 1997
 Embûches de Noël dans Cadeau mortel pour Noël, Éditions Rageot, 2002
@@ -682,42 +857,44 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean-Paul_Nozi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Paul_Nozière</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean-Paul_Nozi%C3%A8re</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prix Totem du roman décerné par Télérama et le Salon du livre et de la presse jeunesse de Montreuil pour Un été algérien (1990)
 Prix de la Société des gens de lettres pour Un été algérien (1990)
 Prix du roman du Salon du livre de Brive pour Des crimes comme ci, comme chat (1992)
 Prix du roman du Salon du livre de Montréal pour Des crimes comme ci, comme chat (1992)
-(international) « Honour List » 1996[6] de l' IBBY pour Un été 58
+(international) « Honour List » 1996 de l' IBBY pour Un été 58
 Prix Noir d'Automne du Festival du polar de Saint-Nazaire 2000 pour Un regrettable accident (1999)
 Prix polar 2001 du salon du polar de Montigny-lès-Cormeilles pour Trois petites mortes (2000)
 Prix Jeunesse France Télévisions, catégorie roman, pour Maboul à zéro (2003)
 Grand Prix du roman noir français du festival du film policier de Cognac 2007 pour Le Silence des morts (2006)
-Prix des Mordus du polar 2008 des bibliothèques de la ville de Paris pour Échec et rap (2007)[7]</t>
+Prix des Mordus du polar 2008 des bibliothèques de la ville de Paris pour Échec et rap (2007)</t>
         </is>
       </c>
     </row>
